--- a/biology/Zoologie/Hemidactylus_kyaboboensis/Hemidactylus_kyaboboensis.xlsx
+++ b/biology/Zoologie/Hemidactylus_kyaboboensis/Hemidactylus_kyaboboensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus kyaboboensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus kyaboboensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Ghana et au Togo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Ghana et au Togo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de kyabobo et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le parc national de Kyabobo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de kyabobo et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le parc national de Kyabobo.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wagner, Leaché &amp; Fujita, 2014 : Description of four new West African forest geckos of the Hemidactylus fasciatus Gray, 1842 complex, revealed by coalescent species delimitation. Bonn zoological Bulletin, vol. 63, no 1, p. 1–14 (texte intégral).</t>
         </is>
